--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-12</t>
   </si>
 </sst>
 </file>
@@ -588,7 +591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1803,6 +1806,23 @@
         <v>74</v>
       </c>
     </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="n">
+        <v>14125</v>
+      </c>
+      <c r="B72" t="n">
+        <v>335</v>
+      </c>
+      <c r="C72" t="n">
+        <v>31721</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1658</v>
+      </c>
+      <c r="E72" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>2020-05-12</t>
+  </si>
+  <si>
+    <t>2020-05-13</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1823,6 +1826,23 @@
         <v>75</v>
       </c>
     </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="n">
+        <v>14865</v>
+      </c>
+      <c r="B73" t="n">
+        <v>346</v>
+      </c>
+      <c r="C73" t="n">
+        <v>34381</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2660</v>
+      </c>
+      <c r="E73" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -246,28 +245,35 @@
   </si>
   <si>
     <t>2020-05-13</t>
+  </si>
+  <si>
+    <t>2020-05-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -282,26 +288,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -589,18 +604,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -620,16 +629,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -637,16 +646,16 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -654,16 +663,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -671,16 +680,16 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
@@ -688,16 +697,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
@@ -705,16 +714,16 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3</v>
       </c>
       <c r="E7" t="s">
@@ -722,16 +731,16 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
         <v>13</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
@@ -739,16 +748,16 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>4</v>
       </c>
       <c r="E9" t="s">
@@ -756,16 +765,16 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>23</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
@@ -773,16 +782,16 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="n">
-        <v>0</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>33</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
@@ -790,16 +799,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="n">
-        <v>0</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>43</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
@@ -807,16 +816,16 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="n">
-        <v>0</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <v>61</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>18</v>
       </c>
       <c r="E13" t="s">
@@ -824,16 +833,16 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="n">
-        <v>0</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>75</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>14</v>
       </c>
       <c r="E14" t="s">
@@ -841,16 +850,16 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <v>156</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>81</v>
       </c>
       <c r="E15" t="s">
@@ -858,16 +867,16 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="n">
-        <v>0</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>201</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>45</v>
       </c>
       <c r="E16" t="s">
@@ -875,16 +884,16 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" t="n">
-        <v>0</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
         <v>238</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>37</v>
       </c>
       <c r="E17" t="s">
@@ -892,16 +901,16 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="n">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>342</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>104</v>
       </c>
       <c r="E18" t="s">
@@ -909,16 +918,16 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" t="n">
+      <c r="A19">
         <v>6</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
         <v>434</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>92</v>
       </c>
       <c r="E19" t="s">
@@ -926,16 +935,16 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" t="n">
+      <c r="A20">
         <v>8</v>
       </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>537</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>103</v>
       </c>
       <c r="E20" t="s">
@@ -943,16 +952,16 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="n">
+      <c r="A21">
         <v>8</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>632</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>95</v>
       </c>
       <c r="E21" t="s">
@@ -960,16 +969,16 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="n">
+      <c r="A22">
         <v>11</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>746</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>114</v>
       </c>
       <c r="E22" t="s">
@@ -977,16 +986,16 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="n">
+      <c r="A23">
         <v>17</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>922</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>176</v>
       </c>
       <c r="E23" t="s">
@@ -994,16 +1003,16 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" t="n">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1142</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>220</v>
       </c>
       <c r="E24" t="s">
@@ -1011,16 +1020,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" t="n">
+      <c r="A25">
         <v>33</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1306</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>164</v>
       </c>
       <c r="E25" t="s">
@@ -1028,16 +1037,16 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" t="n">
+      <c r="A26">
         <v>43</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1610</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>304</v>
       </c>
       <c r="E26" t="s">
@@ -1045,16 +1054,16 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" t="n">
+      <c r="A27">
         <v>61</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>6</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1909</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>299</v>
       </c>
       <c r="E27" t="s">
@@ -1062,16 +1071,16 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" t="n">
+      <c r="A28">
         <v>75</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>7</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>2139</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>230</v>
       </c>
       <c r="E28" t="s">
@@ -1079,16 +1088,16 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" t="n">
+      <c r="A29">
         <v>156</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>8</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>2449</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>310</v>
       </c>
       <c r="E29" t="s">
@@ -1096,16 +1105,16 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" t="n">
+      <c r="A30">
         <v>156</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>12</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>2738</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>289</v>
       </c>
       <c r="E30" t="s">
@@ -1113,16 +1122,16 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" t="n">
+      <c r="A31">
         <v>234</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>16</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>3031</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>293</v>
       </c>
       <c r="E31" t="s">
@@ -1130,16 +1139,16 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" t="n">
+      <c r="A32">
         <v>335</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>18</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>3404</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>373</v>
       </c>
       <c r="E32" t="s">
@@ -1147,16 +1156,16 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" t="n">
+      <c r="A33">
         <v>427</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>22</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>3737</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>333</v>
       </c>
       <c r="E33" t="s">
@@ -1164,16 +1173,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" t="n">
+      <c r="A34">
         <v>528</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>27</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>4161</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>424</v>
       </c>
       <c r="E34" t="s">
@@ -1181,16 +1190,16 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" t="n">
+      <c r="A35">
         <v>528</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>34</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>4471</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>310</v>
       </c>
       <c r="E35" t="s">
@@ -1198,16 +1207,16 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" t="n">
+      <c r="A36">
         <v>728</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>37</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>4815</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>344</v>
       </c>
       <c r="E36" t="s">
@@ -1215,16 +1224,16 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" t="n">
+      <c r="A37">
         <v>898</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>43</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>5116</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>301</v>
       </c>
       <c r="E37" t="s">
@@ -1232,16 +1241,16 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" t="n">
+      <c r="A38">
         <v>1115</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>48</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>5546</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>430</v>
       </c>
       <c r="E38" t="s">
@@ -1249,16 +1258,16 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" t="n">
+      <c r="A39">
         <v>1274</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>57</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>5972</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>426</v>
       </c>
       <c r="E39" t="s">
@@ -1266,16 +1275,16 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" t="n">
+      <c r="A40">
         <v>1571</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>65</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>6501</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>529</v>
       </c>
       <c r="E40" t="s">
@@ -1283,16 +1292,16 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" t="n">
+      <c r="A41">
         <v>1864</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>73</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>6927</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>426</v>
       </c>
       <c r="E41" t="s">
@@ -1300,16 +1309,16 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" t="n">
+      <c r="A42">
         <v>2059</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>80</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>7213</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>286</v>
       </c>
       <c r="E42" t="s">
@@ -1317,16 +1326,16 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" t="n">
+      <c r="A43">
         <v>2367</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>82</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>7525</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>312</v>
       </c>
       <c r="E43" t="s">
@@ -1334,16 +1343,16 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" t="n">
+      <c r="A44">
         <v>2646</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>92</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>7917</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>392</v>
       </c>
       <c r="E44" t="s">
@@ -1351,16 +1360,16 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" t="n">
+      <c r="A45">
         <v>2937</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>94</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>8273</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>356</v>
       </c>
       <c r="E45" t="s">
@@ -1368,16 +1377,16 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" t="n">
+      <c r="A46">
         <v>3299</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>105</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>8807</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>534</v>
       </c>
       <c r="E46" t="s">
@@ -1385,16 +1394,16 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" t="n">
+      <c r="A47">
         <v>3621</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>116</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>9252</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>445</v>
       </c>
       <c r="E47" t="s">
@@ -1402,16 +1411,16 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" t="n">
+      <c r="A48">
         <v>4035</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>126</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>9730</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>478</v>
       </c>
       <c r="E48" t="s">
@@ -1419,16 +1428,16 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" t="n">
+      <c r="A49">
         <v>4338</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>133</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>10088</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>358</v>
       </c>
       <c r="E49" t="s">
@@ -1436,16 +1445,16 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" t="n">
+      <c r="A50">
         <v>4476</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>139</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>10507</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>419</v>
       </c>
       <c r="E50" t="s">
@@ -1453,16 +1462,16 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" t="n">
+      <c r="A51">
         <v>4969</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>147</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>10832</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>325</v>
       </c>
       <c r="E51" t="s">
@@ -1470,16 +1479,16 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" t="n">
+      <c r="A52">
         <v>5386</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>160</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>11296</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>464</v>
       </c>
       <c r="E52" t="s">
@@ -1487,16 +1496,16 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" t="n">
+      <c r="A53">
         <v>5804</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>168</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>11812</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>516</v>
       </c>
       <c r="E53" t="s">
@@ -1504,16 +1513,16 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" t="n">
+      <c r="A54">
         <v>6327</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>174</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>12306</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>494</v>
       </c>
       <c r="E54" t="s">
@@ -1521,16 +1530,16 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" t="n">
+      <c r="A55">
         <v>6746</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>181</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>12858</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>552</v>
       </c>
       <c r="E55" t="s">
@@ -1538,16 +1547,16 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" t="n">
+      <c r="A56">
         <v>7024</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>189</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>13331</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>473</v>
       </c>
       <c r="E56" t="s">
@@ -1555,16 +1564,16 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" t="n">
+      <c r="A57">
         <v>7327</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>198</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>13813</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>482</v>
       </c>
       <c r="E57" t="s">
@@ -1572,16 +1581,16 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" t="n">
+      <c r="A58">
         <v>7710</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>207</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>14365</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>552</v>
       </c>
       <c r="E58" t="s">
@@ -1589,16 +1598,16 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" t="n">
+      <c r="A59">
         <v>8057</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>216</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>15135</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>770</v>
       </c>
       <c r="E59" t="s">
@@ -1606,16 +1615,16 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" t="n">
+      <c r="A60">
         <v>8580</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>227</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>16023</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>888</v>
       </c>
       <c r="E60" t="s">
@@ -1623,16 +1632,16 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" t="n">
+      <c r="A61">
         <v>9018</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>234</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>17008</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>985</v>
       </c>
       <c r="E61" t="s">
@@ -1640,16 +1649,16 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" t="n">
+      <c r="A62">
         <v>9572</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>247</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>18435</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>1427</v>
       </c>
       <c r="E62" t="s">
@@ -1657,16 +1666,16 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" t="n">
+      <c r="A63">
         <v>10041</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>260</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>19663</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>1228</v>
       </c>
       <c r="E63" t="s">
@@ -1674,16 +1683,16 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" t="n">
+      <c r="A64">
         <v>10415</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>270</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>20643</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>980</v>
       </c>
       <c r="E64" t="s">
@@ -1691,16 +1700,16 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" t="n">
+      <c r="A65">
         <v>10710</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>275</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>22016</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>1317</v>
       </c>
       <c r="E65" t="s">
@@ -1708,16 +1717,16 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" t="n">
+      <c r="A66">
         <v>11189</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>281</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>23048</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>1032</v>
       </c>
       <c r="E66" t="s">
@@ -1725,16 +1734,16 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" t="n">
+      <c r="A67">
         <v>11664</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>285</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>24581</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>1533</v>
       </c>
       <c r="E67" t="s">
@@ -1742,16 +1751,16 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" t="n">
+      <c r="A68">
         <v>12160</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>294</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>25972</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>1391</v>
       </c>
       <c r="E68" t="s">
@@ -1759,16 +1768,16 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" t="n">
+      <c r="A69">
         <v>12667</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>304</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>27219</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>1247</v>
       </c>
       <c r="E69" t="s">
@@ -1776,16 +1785,16 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" t="n">
+      <c r="A70">
         <v>13112</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>312</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>28866</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>1647</v>
       </c>
       <c r="E70" t="s">
@@ -1793,16 +1802,16 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" t="n">
+      <c r="A71">
         <v>13605</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>323</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>30063</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>1197</v>
       </c>
       <c r="E71" t="s">
@@ -1810,16 +1819,16 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" t="n">
+      <c r="A72">
         <v>14125</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>335</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>31721</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>1658</v>
       </c>
       <c r="E72" t="s">
@@ -1827,23 +1836,40 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" t="n">
+      <c r="A73">
         <v>14865</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>346</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>34381</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>2660</v>
       </c>
       <c r="E73" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>15655</v>
+      </c>
+      <c r="B74">
+        <v>368</v>
+      </c>
+      <c r="C74">
+        <v>37040</v>
+      </c>
+      <c r="D74">
+        <v>2659</v>
+      </c>
+      <c r="E74" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -248,32 +249,31 @@
   </si>
   <si>
     <t>2020-05-14</t>
+  </si>
+  <si>
+    <t>2020-05-15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -288,35 +288,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -604,12 +595,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -629,16 +626,16 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -646,16 +643,16 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -663,16 +660,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -680,16 +677,16 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>1</v>
       </c>
       <c r="E5" t="s">
@@ -697,16 +694,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="s">
@@ -714,16 +711,16 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>3</v>
       </c>
       <c r="E7" t="s">
@@ -731,16 +728,16 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>3</v>
       </c>
       <c r="E8" t="s">
@@ -748,16 +745,16 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>4</v>
       </c>
       <c r="E9" t="s">
@@ -765,16 +762,16 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="s">
@@ -782,16 +779,16 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
-        <v>0</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>33</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
@@ -799,16 +796,16 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
-        <v>0</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>43</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>10</v>
       </c>
       <c r="E12" t="s">
@@ -816,16 +813,16 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
         <v>61</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>18</v>
       </c>
       <c r="E13" t="s">
@@ -833,16 +830,16 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
         <v>75</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>14</v>
       </c>
       <c r="E14" t="s">
@@ -850,16 +847,16 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>156</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>81</v>
       </c>
       <c r="E15" t="s">
@@ -867,16 +864,16 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
         <v>201</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>45</v>
       </c>
       <c r="E16" t="s">
@@ -884,16 +881,16 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
         <v>238</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>37</v>
       </c>
       <c r="E17" t="s">
@@ -901,16 +898,16 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" t="n">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
         <v>342</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>104</v>
       </c>
       <c r="E18" t="s">
@@ -918,16 +915,16 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
+      <c r="A19" t="n">
         <v>6</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
         <v>434</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>92</v>
       </c>
       <c r="E19" t="s">
@@ -935,16 +932,16 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
+      <c r="A20" t="n">
         <v>8</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>537</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>103</v>
       </c>
       <c r="E20" t="s">
@@ -952,16 +949,16 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
+      <c r="A21" t="n">
         <v>8</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>632</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>95</v>
       </c>
       <c r="E21" t="s">
@@ -969,16 +966,16 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
+      <c r="A22" t="n">
         <v>11</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>2</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>746</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>114</v>
       </c>
       <c r="E22" t="s">
@@ -986,16 +983,16 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
+      <c r="A23" t="n">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>2</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>922</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>176</v>
       </c>
       <c r="E23" t="s">
@@ -1003,16 +1000,16 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>1142</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>220</v>
       </c>
       <c r="E24" t="s">
@@ -1020,16 +1017,16 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
+      <c r="A25" t="n">
         <v>33</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>1306</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>164</v>
       </c>
       <c r="E25" t="s">
@@ -1037,16 +1034,16 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
+      <c r="A26" t="n">
         <v>43</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>5</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>1610</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>304</v>
       </c>
       <c r="E26" t="s">
@@ -1054,16 +1051,16 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
+      <c r="A27" t="n">
         <v>61</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>6</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>1909</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>299</v>
       </c>
       <c r="E27" t="s">
@@ -1071,16 +1068,16 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
+      <c r="A28" t="n">
         <v>75</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>7</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>2139</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>230</v>
       </c>
       <c r="E28" t="s">
@@ -1088,16 +1085,16 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
+      <c r="A29" t="n">
         <v>156</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>8</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>2449</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>310</v>
       </c>
       <c r="E29" t="s">
@@ -1105,16 +1102,16 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
+      <c r="A30" t="n">
         <v>156</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>12</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>2738</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>289</v>
       </c>
       <c r="E30" t="s">
@@ -1122,16 +1119,16 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
+      <c r="A31" t="n">
         <v>234</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>16</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>3031</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>293</v>
       </c>
       <c r="E31" t="s">
@@ -1139,16 +1136,16 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
+      <c r="A32" t="n">
         <v>335</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>18</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>3404</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>373</v>
       </c>
       <c r="E32" t="s">
@@ -1156,16 +1153,16 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
+      <c r="A33" t="n">
         <v>427</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>22</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>3737</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>333</v>
       </c>
       <c r="E33" t="s">
@@ -1173,16 +1170,16 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
+      <c r="A34" t="n">
         <v>528</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>27</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>4161</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>424</v>
       </c>
       <c r="E34" t="s">
@@ -1190,16 +1187,16 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
+      <c r="A35" t="n">
         <v>528</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>34</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>4471</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>310</v>
       </c>
       <c r="E35" t="s">
@@ -1207,16 +1204,16 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
+      <c r="A36" t="n">
         <v>728</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>37</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>4815</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>344</v>
       </c>
       <c r="E36" t="s">
@@ -1224,16 +1221,16 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="A37" t="n">
         <v>898</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>43</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>5116</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>301</v>
       </c>
       <c r="E37" t="s">
@@ -1241,16 +1238,16 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
+      <c r="A38" t="n">
         <v>1115</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>48</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>5546</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>430</v>
       </c>
       <c r="E38" t="s">
@@ -1258,16 +1255,16 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
+      <c r="A39" t="n">
         <v>1274</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>57</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>5972</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>426</v>
       </c>
       <c r="E39" t="s">
@@ -1275,16 +1272,16 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
+      <c r="A40" t="n">
         <v>1571</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>65</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>6501</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>529</v>
       </c>
       <c r="E40" t="s">
@@ -1292,16 +1289,16 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
+      <c r="A41" t="n">
         <v>1864</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>73</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>6927</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>426</v>
       </c>
       <c r="E41" t="s">
@@ -1309,16 +1306,16 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
+      <c r="A42" t="n">
         <v>2059</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>80</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>7213</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>286</v>
       </c>
       <c r="E42" t="s">
@@ -1326,16 +1323,16 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
+      <c r="A43" t="n">
         <v>2367</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>82</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>7525</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>312</v>
       </c>
       <c r="E43" t="s">
@@ -1343,16 +1340,16 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
+      <c r="A44" t="n">
         <v>2646</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>92</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>7917</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>392</v>
       </c>
       <c r="E44" t="s">
@@ -1360,16 +1357,16 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
+      <c r="A45" t="n">
         <v>2937</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>94</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>8273</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>356</v>
       </c>
       <c r="E45" t="s">
@@ -1377,16 +1374,16 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
+      <c r="A46" t="n">
         <v>3299</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>105</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>8807</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>534</v>
       </c>
       <c r="E46" t="s">
@@ -1394,16 +1391,16 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47">
+      <c r="A47" t="n">
         <v>3621</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>116</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>9252</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>445</v>
       </c>
       <c r="E47" t="s">
@@ -1411,16 +1408,16 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48">
+      <c r="A48" t="n">
         <v>4035</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>126</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>9730</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>478</v>
       </c>
       <c r="E48" t="s">
@@ -1428,16 +1425,16 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49">
+      <c r="A49" t="n">
         <v>4338</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>133</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>10088</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>358</v>
       </c>
       <c r="E49" t="s">
@@ -1445,16 +1442,16 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50">
+      <c r="A50" t="n">
         <v>4476</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>139</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>10507</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>419</v>
       </c>
       <c r="E50" t="s">
@@ -1462,16 +1459,16 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51">
+      <c r="A51" t="n">
         <v>4969</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>147</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>10832</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>325</v>
       </c>
       <c r="E51" t="s">
@@ -1479,16 +1476,16 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52">
+      <c r="A52" t="n">
         <v>5386</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>160</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>11296</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>464</v>
       </c>
       <c r="E52" t="s">
@@ -1496,16 +1493,16 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53">
+      <c r="A53" t="n">
         <v>5804</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>168</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>11812</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>516</v>
       </c>
       <c r="E53" t="s">
@@ -1513,16 +1510,16 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54">
+      <c r="A54" t="n">
         <v>6327</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>174</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>12306</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>494</v>
       </c>
       <c r="E54" t="s">
@@ -1530,16 +1527,16 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55">
+      <c r="A55" t="n">
         <v>6746</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>181</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>12858</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>552</v>
       </c>
       <c r="E55" t="s">
@@ -1547,16 +1544,16 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56">
+      <c r="A56" t="n">
         <v>7024</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>189</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>13331</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>473</v>
       </c>
       <c r="E56" t="s">
@@ -1564,16 +1561,16 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57">
+      <c r="A57" t="n">
         <v>7327</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>198</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>13813</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>482</v>
       </c>
       <c r="E57" t="s">
@@ -1581,16 +1578,16 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58">
+      <c r="A58" t="n">
         <v>7710</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>207</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>14365</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>552</v>
       </c>
       <c r="E58" t="s">
@@ -1598,16 +1595,16 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59">
+      <c r="A59" t="n">
         <v>8057</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>216</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>15135</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>770</v>
       </c>
       <c r="E59" t="s">
@@ -1615,16 +1612,16 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60">
+      <c r="A60" t="n">
         <v>8580</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>227</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>16023</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>888</v>
       </c>
       <c r="E60" t="s">
@@ -1632,16 +1629,16 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61">
+      <c r="A61" t="n">
         <v>9018</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>234</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>17008</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>985</v>
       </c>
       <c r="E61" t="s">
@@ -1649,16 +1646,16 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62">
+      <c r="A62" t="n">
         <v>9572</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>247</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>18435</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>1427</v>
       </c>
       <c r="E62" t="s">
@@ -1666,16 +1663,16 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63">
+      <c r="A63" t="n">
         <v>10041</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>260</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>19663</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>1228</v>
       </c>
       <c r="E63" t="s">
@@ -1683,16 +1680,16 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64">
+      <c r="A64" t="n">
         <v>10415</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>270</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>20643</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>980</v>
       </c>
       <c r="E64" t="s">
@@ -1700,16 +1697,16 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65">
+      <c r="A65" t="n">
         <v>10710</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>275</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>22016</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>1317</v>
       </c>
       <c r="E65" t="s">
@@ -1717,16 +1714,16 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66">
+      <c r="A66" t="n">
         <v>11189</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>281</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>23048</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>1032</v>
       </c>
       <c r="E66" t="s">
@@ -1734,16 +1731,16 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67">
+      <c r="A67" t="n">
         <v>11664</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>285</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>24581</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>1533</v>
       </c>
       <c r="E67" t="s">
@@ -1751,16 +1748,16 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68">
+      <c r="A68" t="n">
         <v>12160</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>294</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>25972</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>1391</v>
       </c>
       <c r="E68" t="s">
@@ -1768,16 +1765,16 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69">
+      <c r="A69" t="n">
         <v>12667</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>304</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>27219</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>1247</v>
       </c>
       <c r="E69" t="s">
@@ -1785,16 +1782,16 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70">
+      <c r="A70" t="n">
         <v>13112</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>312</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>28866</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>1647</v>
       </c>
       <c r="E70" t="s">
@@ -1802,16 +1799,16 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71">
+      <c r="A71" t="n">
         <v>13605</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>323</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>30063</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>1197</v>
       </c>
       <c r="E71" t="s">
@@ -1819,16 +1816,16 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72">
+      <c r="A72" t="n">
         <v>14125</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>335</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>31721</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>1658</v>
       </c>
       <c r="E72" t="s">
@@ -1836,16 +1833,16 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73">
+      <c r="A73" t="n">
         <v>14865</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>346</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>34381</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>2660</v>
       </c>
       <c r="E73" t="s">
@@ -1853,23 +1850,40 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74">
+      <c r="A74" t="n">
         <v>15655</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>368</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>37040</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>2659</v>
       </c>
       <c r="E74" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="n">
+        <v>16614</v>
+      </c>
+      <c r="B75" t="n">
+        <v>394</v>
+      </c>
+      <c r="C75" t="n">
+        <v>39542</v>
+      </c>
+      <c r="D75" t="n">
+        <v>2502</v>
+      </c>
+      <c r="E75" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>2020-05-15</t>
+  </si>
+  <si>
+    <t>2020-05-16</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1883,6 +1886,23 @@
         <v>78</v>
       </c>
     </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="n">
+        <v>18014</v>
+      </c>
+      <c r="B76" t="n">
+        <v>421</v>
+      </c>
+      <c r="C76" t="n">
+        <v>41428</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1886</v>
+      </c>
+      <c r="E76" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>2020-05-16</t>
+  </si>
+  <si>
+    <t>2020-05-17</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1903,6 +1906,23 @@
         <v>79</v>
       </c>
     </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="n">
+        <v>19213</v>
+      </c>
+      <c r="B77" t="n">
+        <v>450</v>
+      </c>
+      <c r="C77" t="n">
+        <v>43781</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2353</v>
+      </c>
+      <c r="E77" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>2020-05-17</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
   </si>
 </sst>
 </file>
@@ -606,7 +609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1923,6 +1926,23 @@
         <v>80</v>
       </c>
     </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="n">
+        <v>20165</v>
+      </c>
+      <c r="B78" t="n">
+        <v>478</v>
+      </c>
+      <c r="C78" t="n">
+        <v>46059</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2278</v>
+      </c>
+      <c r="E78" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-19</t>
   </si>
 </sst>
 </file>
@@ -609,7 +612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,6 +1946,23 @@
         <v>81</v>
       </c>
     </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="n">
+        <v>21507</v>
+      </c>
+      <c r="B79" t="n">
+        <v>509</v>
+      </c>
+      <c r="C79" t="n">
+        <v>49579</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3520</v>
+      </c>
+      <c r="E79" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>2020-05-19</t>
+  </si>
+  <si>
+    <t>2020-05-20</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1963,6 +1966,23 @@
         <v>82</v>
       </c>
     </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="n">
+        <v>22504</v>
+      </c>
+      <c r="B80" t="n">
+        <v>544</v>
+      </c>
+      <c r="C80" t="n">
+        <v>53617</v>
+      </c>
+      <c r="D80" t="n">
+        <v>4038</v>
+      </c>
+      <c r="E80" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>2020-05-20</t>
+  </si>
+  <si>
+    <t>2020-05-21</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1983,6 +1986,23 @@
         <v>83</v>
       </c>
     </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="n">
+        <v>23992</v>
+      </c>
+      <c r="B81" t="n">
+        <v>589</v>
+      </c>
+      <c r="C81" t="n">
+        <v>57581</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3964</v>
+      </c>
+      <c r="E81" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>2020-05-21</t>
+  </si>
+  <si>
+    <t>2020-05-22</t>
   </si>
 </sst>
 </file>
@@ -618,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2003,6 +2006,23 @@
         <v>84</v>
       </c>
     </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="n">
+        <v>25342</v>
+      </c>
+      <c r="B82" t="n">
+        <v>630</v>
+      </c>
+      <c r="C82" t="n">
+        <v>61857</v>
+      </c>
+      <c r="D82" t="n">
+        <v>4276</v>
+      </c>
+      <c r="E82" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>2020-05-22</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
   </si>
 </sst>
 </file>
@@ -621,7 +624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2023,6 +2026,23 @@
         <v>85</v>
       </c>
     </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="n">
+        <v>26546</v>
+      </c>
+      <c r="B83" t="n">
+        <v>673</v>
+      </c>
+      <c r="C83" t="n">
+        <v>65393</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3536</v>
+      </c>
+      <c r="E83" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-05-24</t>
   </si>
 </sst>
 </file>
@@ -624,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,6 +2046,23 @@
         <v>86</v>
       </c>
     </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="n">
+        <v>28148</v>
+      </c>
+      <c r="B84" t="n">
+        <v>718</v>
+      </c>
+      <c r="C84" t="n">
+        <v>69102</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3709</v>
+      </c>
+      <c r="E84" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>2020-05-24</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2063,6 +2066,23 @@
         <v>87</v>
       </c>
     </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="n">
+        <v>29302</v>
+      </c>
+      <c r="B85" t="n">
+        <v>761</v>
+      </c>
+      <c r="C85" t="n">
+        <v>73997</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4895</v>
+      </c>
+      <c r="E85" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-05-26</t>
   </si>
 </sst>
 </file>
@@ -630,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2083,6 +2086,23 @@
         <v>88</v>
       </c>
     </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="n">
+        <v>30915</v>
+      </c>
+      <c r="B86" t="n">
+        <v>806</v>
+      </c>
+      <c r="C86" t="n">
+        <v>77961</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3964</v>
+      </c>
+      <c r="E86" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>2020-05-26</t>
+  </si>
+  <si>
+    <t>2020-05-27</t>
   </si>
 </sst>
 </file>
@@ -633,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,6 +2106,23 @@
         <v>89</v>
       </c>
     </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="n">
+        <v>33540</v>
+      </c>
+      <c r="B87" t="n">
+        <v>841</v>
+      </c>
+      <c r="C87" t="n">
+        <v>82289</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4328</v>
+      </c>
+      <c r="E87" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>2020-05-27</t>
+  </si>
+  <si>
+    <t>2020-05-28</t>
   </si>
 </sst>
 </file>
@@ -636,7 +639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2123,6 +2126,23 @@
         <v>90</v>
       </c>
     </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="n">
+        <v>36115</v>
+      </c>
+      <c r="B88" t="n">
+        <v>890</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86943</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4654</v>
+      </c>
+      <c r="E88" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>2020-05-28</t>
+  </si>
+  <si>
+    <t>2020-05-29</t>
   </si>
 </sst>
 </file>
@@ -639,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2143,6 +2146,23 @@
         <v>91</v>
       </c>
     </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="n">
+        <v>38598</v>
+      </c>
+      <c r="B89" t="n">
+        <v>944</v>
+      </c>
+      <c r="C89" t="n">
+        <v>90638</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3695</v>
+      </c>
+      <c r="E89" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>2020-05-29</t>
+  </si>
+  <si>
+    <t>2020-05-30</t>
   </si>
 </sst>
 </file>
@@ -642,7 +645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2163,6 +2166,23 @@
         <v>92</v>
       </c>
     </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="n">
+        <v>40431</v>
+      </c>
+      <c r="B90" t="n">
+        <v>997</v>
+      </c>
+      <c r="C90" t="n">
+        <v>94858</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4220</v>
+      </c>
+      <c r="E90" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -297,6 +297,9 @@
   </si>
   <si>
     <t>2020-05-30</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
   </si>
 </sst>
 </file>
@@ -645,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2183,6 +2186,23 @@
         <v>93</v>
       </c>
     </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="n">
+        <v>42727</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1054</v>
+      </c>
+      <c r="C91" t="n">
+        <v>99688</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4830</v>
+      </c>
+      <c r="E91" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
   <si>
     <t>recuperados a nivel nacional</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2203,6 +2206,23 @@
         <v>94</v>
       </c>
     </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="n">
+        <v>44946</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1113</v>
+      </c>
+      <c r="C92" t="n">
+        <v>105159</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5471</v>
+      </c>
+      <c r="E92" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
+++ b/Database Notebook/xlsx/Resumen_COVID-19_Chile_.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3622,6 +3622,214 @@
         <v>32476</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2020-07-01</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr"/>
+      <c r="C123" t="n">
+        <v>5753</v>
+      </c>
+      <c r="D123" t="n">
+        <v>282043</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2650</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2134</v>
+      </c>
+      <c r="G123" t="n">
+        <v>300</v>
+      </c>
+      <c r="H123" t="n">
+        <v>30847</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2020-07-02</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
+      <c r="C124" t="n">
+        <v>5920</v>
+      </c>
+      <c r="D124" t="n">
+        <v>284541</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2498</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2042</v>
+      </c>
+      <c r="G124" t="n">
+        <v>230</v>
+      </c>
+      <c r="H124" t="n">
+        <v>29374</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2020-07-03</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
+      <c r="C125" t="n">
+        <v>6051</v>
+      </c>
+      <c r="D125" t="n">
+        <v>288089</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3548</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2703</v>
+      </c>
+      <c r="G125" t="n">
+        <v>322</v>
+      </c>
+      <c r="H125" t="n">
+        <v>28695</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2020-07-04</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr"/>
+      <c r="C126" t="n">
+        <v>6192</v>
+      </c>
+      <c r="D126" t="n">
+        <v>291847</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3758</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2951</v>
+      </c>
+      <c r="G126" t="n">
+        <v>371</v>
+      </c>
+      <c r="H126" t="n">
+        <v>28210</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr"/>
+      <c r="C127" t="n">
+        <v>6308</v>
+      </c>
+      <c r="D127" t="n">
+        <v>295532</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3685</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2852</v>
+      </c>
+      <c r="G127" t="n">
+        <v>438</v>
+      </c>
+      <c r="H127" t="n">
+        <v>28194</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr"/>
+      <c r="C128" t="n">
+        <v>6384</v>
+      </c>
+      <c r="D128" t="n">
+        <v>298557</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3025</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2354</v>
+      </c>
+      <c r="G128" t="n">
+        <v>404</v>
+      </c>
+      <c r="H128" t="n">
+        <v>27804</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2020-07-07</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
+      <c r="C129" t="n">
+        <v>6434</v>
+      </c>
+      <c r="D129" t="n">
+        <v>301019</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2462</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1946</v>
+      </c>
+      <c r="G129" t="n">
+        <v>266</v>
+      </c>
+      <c r="H129" t="n">
+        <v>26340</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2020-07-08</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
+      <c r="C130" t="n">
+        <v>6573</v>
+      </c>
+      <c r="D130" t="n">
+        <v>303083</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2064</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1638</v>
+      </c>
+      <c r="G130" t="n">
+        <v>265</v>
+      </c>
+      <c r="H130" t="n">
+        <v>24807</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
